--- a/Data_Log/data_litho_cutting/Cuttings log well 15-6-10.xlsx
+++ b/Data_Log/data_litho_cutting/Cuttings log well 15-6-10.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89265b8df4843caa/Documents/Vår 2017/Master/Mud logs/15 6-10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simen\OneDrive\Documents\Vår 2017\Master\Mud logs\15 6-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="12800"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="12">
   <si>
     <t>Top</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Marl</t>
-  </si>
-  <si>
-    <t>coal</t>
   </si>
   <si>
     <t>Coal</t>
@@ -425,17 +422,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>700</v>
       </c>
@@ -460,11 +457,11 @@
         <v>4</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(OR(C2="Claystone",C2="Siltstone",C2="Shale",C2="Clay"),"Shale",IF(C2="Limestone","Carbonate",C2))</f>
-        <v>Shale</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(OR(C2="Claystone",C2="Siltstone",C2="Shale",C2="Clay",C2="Marl"),"Shale",IF(C2="Limestone","Carbonate",C2))</f>
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>B2</f>
         <v>767</v>
@@ -476,11 +473,11 @@
         <v>5</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(OR(C3="Claystone",C3="Siltstone",C3="Shale",C3="Clay"),"Shale",IF(C3="Limestone","Carbonate",C3))</f>
+        <f t="shared" ref="D3:D66" si="0">IF(OR(C3="Claystone",C3="Siltstone",C3="Shale",C3="Clay",C3="Marl"),"Shale",IF(C3="Limestone","Carbonate",C3))</f>
         <v>Sand</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="1">B3</f>
         <v>775</v>
@@ -496,7 +493,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>779</v>
@@ -512,7 +509,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>783</v>
@@ -528,7 +525,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>790</v>
@@ -544,7 +541,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>824</v>
@@ -560,7 +557,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>826</v>
@@ -576,7 +573,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>834</v>
@@ -592,7 +589,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>837</v>
@@ -608,7 +605,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>913</v>
@@ -624,7 +621,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>918</v>
@@ -640,7 +637,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>955</v>
@@ -656,7 +653,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>997</v>
@@ -672,7 +669,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -688,7 +685,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>1111</v>
@@ -704,7 +701,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>1113</v>
@@ -720,7 +717,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>1119</v>
@@ -736,7 +733,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>1125</v>
@@ -752,7 +749,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>1140</v>
@@ -768,7 +765,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>1143</v>
@@ -784,7 +781,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>1149</v>
@@ -800,7 +797,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>1154</v>
@@ -816,7 +813,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>1162</v>
@@ -832,7 +829,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>1170</v>
@@ -848,7 +845,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>1244</v>
@@ -864,7 +861,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>1247</v>
@@ -880,7 +877,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>1265</v>
@@ -896,7 +893,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>1287</v>
@@ -912,7 +909,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>1614</v>
@@ -928,7 +925,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>1617</v>
@@ -944,7 +941,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>1680</v>
@@ -960,7 +957,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>1690</v>
@@ -976,7 +973,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>1700</v>
@@ -992,7 +989,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>1706</v>
@@ -1008,7 +1005,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>1712</v>
@@ -1024,7 +1021,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>1715</v>
@@ -1040,7 +1037,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>1719</v>
@@ -1056,7 +1053,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>1725</v>
@@ -1072,7 +1069,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>1743</v>
@@ -1088,7 +1085,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>1766</v>
@@ -1104,7 +1101,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>1776</v>
@@ -1120,7 +1117,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>1780</v>
@@ -1136,7 +1133,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>1791</v>
@@ -1152,7 +1149,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>1856</v>
@@ -1168,7 +1165,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>1869</v>
@@ -1184,7 +1181,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>1890</v>
@@ -1200,7 +1197,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>1895</v>
@@ -1216,7 +1213,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>1914</v>
@@ -1232,7 +1229,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>1925</v>
@@ -1248,7 +1245,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>1930</v>
@@ -1264,7 +1261,7 @@
         <v>Sand</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>1957</v>
@@ -1280,7 +1277,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>2410</v>
@@ -1296,7 +1293,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>2513</v>
@@ -1312,7 +1309,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>2522</v>
@@ -1328,7 +1325,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>2582</v>
@@ -1344,7 +1341,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>2587</v>
@@ -1360,7 +1357,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>2595</v>
@@ -1376,7 +1373,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>2598</v>
@@ -1392,7 +1389,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>2620</v>
@@ -1408,7 +1405,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>2624</v>
@@ -1424,7 +1421,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>2639</v>
@@ -1440,7 +1437,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>2656</v>
@@ -1456,7 +1453,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>2666</v>
@@ -1472,7 +1469,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>2673</v>
@@ -1488,7 +1485,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>2684</v>
@@ -1500,11 +1497,11 @@
         <v>6</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="2">IF(OR(C67="Claystone",C67="Siltstone",C67="Shale",C67="Clay"),"Shale",IF(C67="Limestone","Carbonate",C67))</f>
-        <v>Shale</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D67:D130" si="2">IF(OR(C67="Claystone",C67="Siltstone",C67="Shale",C67="Clay",C67="Marl"),"Shale",IF(C67="Limestone","Carbonate",C67))</f>
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="3">B67</f>
         <v>2692</v>
@@ -1520,7 +1517,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="3"/>
         <v>2702</v>
@@ -1536,7 +1533,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="3"/>
         <v>2715</v>
@@ -1549,10 +1546,10 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="3"/>
         <v>2721</v>
@@ -1568,7 +1565,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="3"/>
         <v>2731</v>
@@ -1581,10 +1578,10 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="3"/>
         <v>2736</v>
@@ -1600,7 +1597,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="3"/>
         <v>2775</v>
@@ -1613,10 +1610,10 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="3"/>
         <v>2784</v>
@@ -1632,7 +1629,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="3"/>
         <v>2788</v>
@@ -1645,10 +1642,10 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="3"/>
         <v>2794</v>
@@ -1664,7 +1661,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>2802</v>
@@ -1677,10 +1674,10 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>2813</v>
@@ -1696,7 +1693,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>2816</v>
@@ -1709,10 +1706,10 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>2819</v>
@@ -1728,7 +1725,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>2823</v>
@@ -1741,10 +1738,10 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>2833</v>
@@ -1760,7 +1757,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>2839</v>
@@ -1773,10 +1770,10 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>2849</v>
@@ -1792,7 +1789,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>2854</v>
@@ -1805,10 +1802,10 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>2857</v>
@@ -1824,7 +1821,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>2872</v>
@@ -1837,10 +1834,10 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>2876</v>
@@ -1856,7 +1853,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>2879</v>
@@ -1869,10 +1866,10 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>2882</v>
@@ -1888,7 +1885,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>2889</v>
@@ -1901,10 +1898,10 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>2895</v>
@@ -1920,7 +1917,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>2924</v>
@@ -1933,10 +1930,10 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>2928</v>
@@ -1952,7 +1949,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>2932</v>
@@ -1965,10 +1962,10 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>2941</v>
@@ -1984,7 +1981,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>2945</v>
@@ -1997,10 +1994,10 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>2951</v>
@@ -2016,7 +2013,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>2955</v>
@@ -2029,10 +2026,10 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>2970</v>
@@ -2048,7 +2045,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>2979</v>
@@ -2061,10 +2058,10 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>2985</v>
@@ -2080,7 +2077,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>2988</v>
@@ -2093,10 +2090,10 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>2999</v>
@@ -2112,7 +2109,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>3004</v>
@@ -2125,10 +2122,10 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>3007</v>
@@ -2144,7 +2141,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>3009</v>
@@ -2157,10 +2154,10 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>3013</v>
@@ -2176,7 +2173,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <f t="shared" si="3"/>
         <v>3016</v>
@@ -2189,10 +2186,10 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <f t="shared" si="3"/>
         <v>3023</v>
@@ -2208,7 +2205,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <f t="shared" si="3"/>
         <v>3026</v>
@@ -2221,10 +2218,10 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <f t="shared" si="3"/>
         <v>3036</v>
@@ -2240,7 +2237,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <f t="shared" si="3"/>
         <v>3040</v>
@@ -2253,10 +2250,10 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>3088</v>
@@ -2272,7 +2269,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>3092</v>
@@ -2285,10 +2282,10 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" si="3"/>
         <v>3098</v>
@@ -2304,7 +2301,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" si="3"/>
         <v>3118</v>
@@ -2317,10 +2314,10 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" si="3"/>
         <v>3192</v>
@@ -2336,7 +2333,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" si="3"/>
         <v>3199</v>
@@ -2349,10 +2346,10 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" si="3"/>
         <v>3204</v>
@@ -2368,7 +2365,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" si="3"/>
         <v>3235</v>
@@ -2381,10 +2378,10 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="3"/>
         <v>3245</v>
@@ -2400,7 +2397,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" si="3"/>
         <v>3253</v>
@@ -2413,10 +2410,10 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" si="3"/>
         <v>3259</v>
@@ -2432,7 +2429,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <f t="shared" si="3"/>
         <v>3275</v>
@@ -2445,10 +2442,10 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <f t="shared" si="3"/>
         <v>3283</v>
@@ -2464,7 +2461,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <f t="shared" si="3"/>
         <v>3294</v>
@@ -2477,10 +2474,10 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="2"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" si="3"/>
         <v>3437</v>
@@ -2496,7 +2493,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <f t="shared" si="3"/>
         <v>3442</v>
@@ -2512,7 +2509,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <f t="shared" si="3"/>
         <v>3463</v>
@@ -2524,11 +2521,11 @@
         <v>8</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D155" si="4">IF(OR(C131="Claystone",C131="Siltstone",C131="Shale",C131="Clay"),"Shale",IF(C131="Limestone","Carbonate",C131))</f>
-        <v>Carbonate</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D131:D155" si="4">IF(OR(C131="Claystone",C131="Siltstone",C131="Shale",C131="Clay",C131="Marl"),"Shale",IF(C131="Limestone","Carbonate",C131))</f>
+        <v>Carbonate</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <f t="shared" ref="A132:A155" si="5">B131</f>
         <v>3469</v>
@@ -2544,7 +2541,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <f t="shared" si="5"/>
         <v>3507</v>
@@ -2560,7 +2557,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <f t="shared" si="5"/>
         <v>3510</v>
@@ -2576,7 +2573,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" si="5"/>
         <v>3521</v>
@@ -2589,10 +2586,10 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="4"/>
-        <v>coal</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Coal</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" si="5"/>
         <v>3525</v>
@@ -2608,7 +2605,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <f t="shared" si="5"/>
         <v>3529</v>
@@ -2624,7 +2621,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <f t="shared" si="5"/>
         <v>3544</v>
@@ -2633,14 +2630,14 @@
         <v>3550</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="4"/>
         <v>Coal</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <f t="shared" si="5"/>
         <v>3550</v>
@@ -2656,7 +2653,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <f t="shared" si="5"/>
         <v>3566</v>
@@ -2672,7 +2669,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <f t="shared" si="5"/>
         <v>3571</v>
@@ -2688,7 +2685,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <f t="shared" si="5"/>
         <v>3591</v>
@@ -2704,7 +2701,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <f t="shared" si="5"/>
         <v>3600</v>
@@ -2713,14 +2710,14 @@
         <v>3614</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="4"/>
         <v>Shale</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <f t="shared" si="5"/>
         <v>3614</v>
@@ -2736,7 +2733,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <f t="shared" si="5"/>
         <v>3622</v>
@@ -2745,14 +2742,14 @@
         <v>3625</v>
       </c>
       <c r="C145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="4"/>
         <v>Shale</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <f t="shared" si="5"/>
         <v>3625</v>
@@ -2768,7 +2765,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <f t="shared" si="5"/>
         <v>3632</v>
@@ -2777,14 +2774,14 @@
         <v>3639</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="4"/>
         <v>Shale</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <f t="shared" si="5"/>
         <v>3639</v>
@@ -2800,7 +2797,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <f t="shared" si="5"/>
         <v>3641</v>
@@ -2809,14 +2806,14 @@
         <v>3646</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="4"/>
         <v>Shale</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <f t="shared" si="5"/>
         <v>3646</v>
@@ -2832,7 +2829,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <f t="shared" si="5"/>
         <v>3650</v>
@@ -2848,7 +2845,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <f t="shared" si="5"/>
         <v>3679</v>
@@ -2864,7 +2861,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <f t="shared" si="5"/>
         <v>3690</v>
@@ -2880,7 +2877,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <f t="shared" si="5"/>
         <v>3702</v>
@@ -2889,14 +2886,14 @@
         <v>3713</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="4"/>
         <v>Shale</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <f t="shared" si="5"/>
         <v>3713</v>
